--- a/generic_metrics.xlsx
+++ b/generic_metrics.xlsx
@@ -488,16 +488,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5532598714416896</v>
+        <v>0.6149903569258408</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5325015476927473</v>
+        <v>0.5996968755589445</v>
       </c>
     </row>
     <row r="3">
@@ -518,16 +518,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5895668204330946</v>
+        <v>0.6054994388327721</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5827962276560408</v>
+        <v>0.5883251115809256</v>
       </c>
     </row>
     <row r="4">
@@ -548,16 +548,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5864289374927673</v>
+        <v>0.5760546642899584</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5856049522478021</v>
+        <v>0.5756709956709957</v>
       </c>
     </row>
     <row r="5">
@@ -578,16 +578,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5895668204330946</v>
+        <v>0.5700725200725201</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5827962276560408</v>
+        <v>0.5607315292914716</v>
       </c>
     </row>
     <row r="6">
@@ -608,16 +608,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5882076579750998</v>
+        <v>0.5667789001122335</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5840773324644293</v>
+        <v>0.5647687916466659</v>
       </c>
     </row>
     <row r="7">
@@ -638,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6243714103938435</v>
+        <v>0.5958694083694084</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6109274563820019</v>
+        <v>0.5768039583760562</v>
       </c>
     </row>
     <row r="8">
@@ -668,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5871992233548298</v>
+        <v>0.6380163187943508</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="H8" t="n">
-        <v>0.577713644380311</v>
+        <v>0.6210250654695099</v>
       </c>
     </row>
     <row r="9">
@@ -698,16 +698,16 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6464646464646465</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6367377478488589</v>
+        <v>0.6723717682621791</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6464646464646465</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6297082710435792</v>
+        <v>0.6596265687174777</v>
       </c>
     </row>
     <row r="10">
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5797410726988192</v>
+        <v>0.5644007644007645</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5789569907216966</v>
+        <v>0.5614268772163509</v>
       </c>
     </row>
     <row r="11">
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6295049258012221</v>
+        <v>0.5845615408025738</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5959695476936857</v>
+        <v>0.5587114142545274</v>
       </c>
     </row>
     <row r="14">
@@ -848,16 +848,16 @@
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6260381593714928</v>
+        <v>0.6361399060332612</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6255737094446773</v>
+        <v>0.6359916679065615</v>
       </c>
     </row>
     <row r="15">
@@ -878,16 +878,16 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5955922865013774</v>
+        <v>0.5659492888064316</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5947995127650583</v>
+        <v>0.5657452343172461</v>
       </c>
     </row>
     <row r="16">
@@ -911,13 +911,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6686291000841044</v>
+        <v>0.6705128205128206</v>
       </c>
       <c r="G16" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6642614163488301</v>
+        <v>0.6629388008698355</v>
       </c>
     </row>
     <row r="17">
@@ -938,16 +938,16 @@
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6488496071829406</v>
+        <v>0.6727272727272726</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6058438038925844</v>
+        <v>0.6103896103896104</v>
       </c>
     </row>
     <row r="18">
@@ -968,16 +968,16 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5854600825531058</v>
+        <v>0.5753018910913648</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5841572757460608</v>
+        <v>0.5734006734006734</v>
       </c>
     </row>
     <row r="19">
@@ -998,16 +998,16 @@
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6565656565656566</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6610976024263342</v>
+        <v>0.6173600410888547</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6565656565656566</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="H19" t="n">
-        <v>0.651930433907178</v>
+        <v>0.61267217630854</v>
       </c>
     </row>
     <row r="20">
@@ -1028,16 +1028,16 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7122877122877123</v>
+        <v>0.6736596736596737</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7086527929901424</v>
+        <v>0.6843738590726542</v>
       </c>
     </row>
     <row r="21">
@@ -1058,16 +1058,16 @@
         <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7171717171717171</v>
+        <v>0.8080808080808081</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6841913106973347</v>
+        <v>0.7943350289117864</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7171717171717171</v>
+        <v>0.8080808080808081</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6960490985807443</v>
+        <v>0.7959759157522091</v>
       </c>
     </row>
     <row r="22">
@@ -1088,16 +1088,16 @@
         <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6166666666666666</v>
+        <v>0.6063432024694578</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6376390904692792</v>
+        <v>0.6241661605961747</v>
       </c>
     </row>
     <row r="23">
@@ -1148,16 +1148,16 @@
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7170582226762002</v>
+        <v>0.6931382793451759</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7180122603365071</v>
+        <v>0.7033295922184811</v>
       </c>
     </row>
     <row r="25">
@@ -1178,16 +1178,16 @@
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="F25" t="n">
-        <v>0.634768740031898</v>
+        <v>0.6772404900064475</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6590272472625414</v>
+        <v>0.678946164357305</v>
       </c>
     </row>
     <row r="26">
@@ -1208,16 +1208,16 @@
         <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="F26" t="n">
-        <v>0.585590247829337</v>
+        <v>0.6675084175084175</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5603877760657421</v>
+        <v>0.5996402379964023</v>
       </c>
     </row>
     <row r="27">
@@ -1238,16 +1238,16 @@
         <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6030934343434343</v>
+        <v>0.6106622741652941</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5870990607832713</v>
+        <v>0.6006759110207387</v>
       </c>
     </row>
     <row r="28">
@@ -1268,16 +1268,16 @@
         <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="F28" t="n">
-        <v>0.628300549353181</v>
+        <v>0.6394219741570457</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6241131661692408</v>
+        <v>0.6336700336700336</v>
       </c>
     </row>
     <row r="29">
@@ -1358,16 +1358,16 @@
         <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5813243073517046</v>
+        <v>0.6384356384356384</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5396665845446332</v>
+        <v>0.5593434343434344</v>
       </c>
     </row>
   </sheetData>
